--- a/Timetable/SampleGuide1.xlsx
+++ b/Timetable/SampleGuide1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opsi Jay\Documents\Visual Studio 2017\Projects\Timetable\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A724D9F2-468D-44EC-BDC8-CD9EAE8D17E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F357B892-C16F-4592-BD62-B2D65830A451}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="1768">
   <si>
     <t>StudentTable</t>
   </si>
@@ -5321,6 +5321,18 @@
   </si>
   <si>
     <t>14:00</t>
+  </si>
+  <si>
+    <t>nlt-a</t>
+  </si>
+  <si>
+    <t>nlt-b</t>
+  </si>
+  <si>
+    <t>nlc-c-x</t>
+  </si>
+  <si>
+    <t>nlt-c</t>
   </si>
 </sst>
 </file>
@@ -5694,6 +5706,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5712,11 +5729,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6047,17 +6059,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6070,12 +6082,12 @@
       <c r="C2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="5" t="s">
         <v>106</v>
       </c>
@@ -23842,7 +23854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F252"/>
     </sheetView>
   </sheetViews>
@@ -23852,22 +23864,22 @@
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12" style="27" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -23882,10 +23894,10 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -23905,10 +23917,10 @@
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>1757</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="24" t="s">
         <v>1759</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -23929,8 +23941,8 @@
         <v>4</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="15"/>
       <c r="H4" t="s">
         <v>15</v>
@@ -23947,8 +23959,8 @@
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -23986,10 +23998,10 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="27" t="s">
         <v>1758</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="27" t="s">
         <v>1759</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -24320,7 +24332,7 @@
       <c r="C37" s="2">
         <v>2</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -24411,7 +24423,7 @@
       <c r="C45" s="2">
         <v>3</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="27" t="s">
         <v>1761</v>
       </c>
     </row>
@@ -24535,7 +24547,7 @@
       <c r="C56" s="2">
         <v>2</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="27" t="s">
         <v>1762</v>
       </c>
     </row>
@@ -24593,7 +24605,7 @@
       <c r="C61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -24662,7 +24674,7 @@
       <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -24731,7 +24743,7 @@
       <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="27" t="s">
         <v>1762</v>
       </c>
     </row>
@@ -24789,7 +24801,7 @@
       <c r="C78" s="2">
         <v>3</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -24869,10 +24881,10 @@
       <c r="C85" s="2">
         <v>2</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="27" t="s">
         <v>1759</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F85" s="27" t="s">
         <v>1763</v>
       </c>
     </row>
@@ -24966,7 +24978,7 @@
       <c r="C93" s="2">
         <v>2</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -25046,7 +25058,7 @@
       <c r="C100" s="2">
         <v>2</v>
       </c>
-      <c r="F100" s="33" t="s">
+      <c r="F100" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -25115,7 +25127,7 @@
       <c r="C106" s="2">
         <v>4</v>
       </c>
-      <c r="F106" s="33" t="s">
+      <c r="F106" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -25195,7 +25207,7 @@
       <c r="C113" s="2">
         <v>4</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F113" s="27" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -26895,27 +26907,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
@@ -28046,10 +28058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28061,11 +28073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28249,6 +28261,38 @@
       </c>
       <c r="B21" s="2">
         <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B22" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B24" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B25" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
